--- a/ICO_cleaners/xl_files/DisappearanceCalendarYear1963-2016.xlsx
+++ b/ICO_cleaners/xl_files/DisappearanceCalendarYear1963-2016.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Economics &amp; Stats\Statistics\Historical data\machinelearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiru/Documents/workspace/comp0016/ICO_cleaners/xl_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5701B-E42F-4841-82B3-EBBDC538C3E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +29,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="rep 2018-12-06 11-28-46" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rep 2018-12-06 11-28-46" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr prompt="0" sourceFile="C:\Program Files (x86)\WorldStatCoffee\Temp\rep 2018-12-06 11-28-46.rwsc" thousands=" ">
       <textFields count="55">
         <textField type="text"/>
@@ -381,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,9 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -454,6 +452,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +474,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rep 2018-12-06 11-28-46" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rep 2018-12-06 11-28-46" adjustColumnWidth="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,6329 +739,6329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="55" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="55" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AH6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AI6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AL6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AM6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AR6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AT6" s="5" t="s">
+      <c r="AT6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AU6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AV6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AW6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AX6" s="5" t="s">
+      <c r="AX6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="AY6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="5" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BA6" s="5" t="s">
+      <c r="BA6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BB6" s="5" t="s">
+      <c r="BB6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BC6" s="5" t="s">
+      <c r="BC6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>-4590.9998999999998</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>293896.99920000002</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>287391.00189999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>302249.99949999998</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>331359.00150000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>364191.99890000001</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>402876.00030000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>461528.00020000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>466077.99949999998</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>511612.00099999999</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>494393.00099999999</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>433022.99979999999</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>610935.00150000001</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>623758.00170000002</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>520041</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>602957.00029999996</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>729069.00029999996</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>871261.99939999997</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>824783.99930000002</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>998627.99860000005</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>1072360.9975000001</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>973156.99809999997</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>924679.99750000006</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <v>977433.99769999995</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="5">
         <v>1032827.9971</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="5">
         <v>1015156.9961</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="5">
         <v>1337327.9916999999</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="5">
         <v>1340123.9853999999</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="5">
         <v>1302085.9698999999</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="5">
         <v>1212333.9637</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="5">
         <v>1335000.9818</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="5">
         <v>1086218.9956</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH7" s="5">
         <v>1011769.9957</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="5">
         <v>1075788.0005000001</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="5">
         <v>1087079.5972</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK7" s="5">
         <v>1104738.1969999999</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="5">
         <v>1123297.2893999999</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="5">
         <v>874731.27890000003</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="5">
         <v>1012663.9738</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="5">
         <v>926026.86950000003</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AP7" s="5">
         <v>719572.36399999994</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AQ7" s="5">
         <v>995823.77480000001</v>
       </c>
-      <c r="AR7" s="6">
+      <c r="AR7" s="5">
         <v>772066.13549999997</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AS7" s="5">
         <v>612470.64639999997</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AT7" s="5">
         <v>846815.65689999994</v>
       </c>
-      <c r="AU7" s="6">
+      <c r="AU7" s="5">
         <v>907886.81830000004</v>
       </c>
-      <c r="AV7" s="6">
+      <c r="AV7" s="5">
         <v>885715.84759999998</v>
       </c>
-      <c r="AW7" s="6">
+      <c r="AW7" s="5">
         <v>902854.32860000001</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AX7" s="5">
         <v>1117345.6428</v>
       </c>
-      <c r="AY7" s="6">
+      <c r="AY7" s="5">
         <v>1269019.4578</v>
       </c>
-      <c r="AZ7" s="6">
+      <c r="AZ7" s="5">
         <v>1249056.1033000001</v>
       </c>
-      <c r="BA7" s="6">
+      <c r="BA7" s="5">
         <v>-4000</v>
       </c>
-      <c r="BB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="6">
+      <c r="BB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="5">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5">
         <v>834492.47519999999</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="5">
         <v>1133360.5634999999</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="5">
         <v>884233.26760000002</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AO8" s="5">
         <v>1484300.9639999999</v>
       </c>
-      <c r="AP8" s="6">
+      <c r="AP8" s="5">
         <v>1579418.5707</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AQ8" s="5">
         <v>1396235.4379</v>
       </c>
-      <c r="AR8" s="6">
+      <c r="AR8" s="5">
         <v>1158037.7555</v>
       </c>
-      <c r="AS8" s="6">
+      <c r="AS8" s="5">
         <v>1537413.0848000001</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="5">
         <v>1103118.3459000001</v>
       </c>
-      <c r="AU8" s="6">
+      <c r="AU8" s="5">
         <v>649930.51630000002</v>
       </c>
-      <c r="AV8" s="6">
+      <c r="AV8" s="5">
         <v>934292.88100000005</v>
       </c>
-      <c r="AW8" s="6">
+      <c r="AW8" s="5">
         <v>870665.17890000006</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AX8" s="5">
         <v>934468.74950000003</v>
       </c>
-      <c r="AY8" s="6">
+      <c r="AY8" s="5">
         <v>914636.55900000001</v>
       </c>
-      <c r="AZ8" s="6">
+      <c r="AZ8" s="5">
         <v>1245164.7608</v>
       </c>
-      <c r="BA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="6">
+      <c r="BA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>-61276.000899999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1096193.0001999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1235254.0016000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1063192.0001000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1137479.0024000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1137720.0016000001</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1218620.0022</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>1102510.0026</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1211496.0038000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>1184856.0042000001</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>1249971.9982</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>1092217.9949</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>1178463.9933</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>1483050.9938000001</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>962995.99549999996</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>1210923.9950999999</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>1331311.9941</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1213000.9916999999</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>1462479.9924000001</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>1218958.9931000001</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>1507373.9898000001</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>1236163.9882</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>1301299.9822</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>1221521.9896</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <v>1187311.9904</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <v>1209834.9890000001</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <v>1662332.9882</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <v>1124109.9835999999</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <v>708156.97990000003</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <v>696372.97930000001</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <v>789436.98419999995</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <v>958214.99040000001</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AH9" s="5">
         <v>1073014.9839000001</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <v>1038637.0710999999</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="5">
         <v>886263.76450000005</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="5">
         <v>1309406.4765999999</v>
       </c>
-      <c r="AL9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="6">
+      <c r="AL9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>50000.000399999997</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>50000.000399999997</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>50000.000399999997</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>50000.000399999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>59486.998800000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>51187.000800000002</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>7583.0009</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>8666.9987999999994</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>37000.002999999997</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>27665.000800000002</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>36403.004399999998</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>24229.0023</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>13901.001099999999</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>42640.000500000002</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>25917.000700000001</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>32816.999000000003</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>55217.000599999999</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>79500.004100000006</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>41716.999199999998</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>153850.00270000001</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>141070.0006</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>91989.998300000007</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>81753.002600000007</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <v>95023.000100000005</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <v>161839.0013</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <v>84524.002600000007</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <v>101782.9982</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <v>16761.001400000001</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <v>174878.01209999999</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <v>326955.00579999998</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="5">
         <v>352764.0061</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="5">
         <v>393408.00719999999</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="5">
         <v>246474.99479999999</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="5">
         <v>274918.00260000001</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="5">
         <v>324160.00439999998</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="5">
         <v>363042.40460000001</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="5">
         <v>275084.81630000001</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="5">
         <v>350399.59600000002</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="5">
         <v>340568.69709999999</v>
       </c>
-      <c r="AP10" s="6">
+      <c r="AP10" s="5">
         <v>397314.69760000001</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AQ10" s="5">
         <v>364190.79619999998</v>
       </c>
-      <c r="AR10" s="6">
+      <c r="AR10" s="5">
         <v>430013.98570000002</v>
       </c>
-      <c r="AS10" s="6">
+      <c r="AS10" s="5">
         <v>420382.51880000002</v>
       </c>
-      <c r="AT10" s="6">
+      <c r="AT10" s="5">
         <v>364189.9682</v>
       </c>
-      <c r="AU10" s="6">
+      <c r="AU10" s="5">
         <v>444717.88890000002</v>
       </c>
-      <c r="AV10" s="6">
+      <c r="AV10" s="5">
         <v>409275.90279999998</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="5">
         <v>395357.99119999999</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="5">
         <v>359519.75069999998</v>
       </c>
-      <c r="AY10" s="6">
+      <c r="AY10" s="5">
         <v>375941.25089999998</v>
       </c>
-      <c r="AZ10" s="6">
+      <c r="AZ10" s="5">
         <v>418606.84730000002</v>
       </c>
-      <c r="BA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="6">
+      <c r="BA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="6">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
         <v>134545.00399999999</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="5">
         <v>131889.99979999999</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="5">
         <v>163862.00109999999</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="5">
         <v>288481.00459999999</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="5">
         <v>304468.99790000002</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="5">
         <v>361396.00260000001</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="5">
         <v>319730.00020000001</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11" s="5">
         <v>337168.00410000002</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="5">
         <v>327123.99550000002</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="5">
         <v>336767.9964</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AO11" s="5">
         <v>354862.99479999999</v>
       </c>
-      <c r="AP11" s="6">
+      <c r="AP11" s="5">
         <v>375427.9963</v>
       </c>
-      <c r="AQ11" s="6">
+      <c r="AQ11" s="5">
         <v>370009.54739999998</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AR11" s="5">
         <v>373753.05930000002</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="5">
         <v>386132.85239999997</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="5">
         <v>386334.46360000002</v>
       </c>
-      <c r="AU11" s="6">
+      <c r="AU11" s="5">
         <v>377142.18530000001</v>
       </c>
-      <c r="AV11" s="6">
+      <c r="AV11" s="5">
         <v>365637.52899999998</v>
       </c>
-      <c r="AW11" s="6">
+      <c r="AW11" s="5">
         <v>369838.59330000001</v>
       </c>
-      <c r="AX11" s="6">
+      <c r="AX11" s="5">
         <v>367153.1434</v>
       </c>
-      <c r="AY11" s="6">
+      <c r="AY11" s="5">
         <v>360364.11969999998</v>
       </c>
-      <c r="AZ11" s="6">
+      <c r="AZ11" s="5">
         <v>386562.62540000002</v>
       </c>
-      <c r="BA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="6">
+      <c r="BA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>8031</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>16089.0003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>10538.0003</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>23669.999899999999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>21709.001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>22348.9997</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>28222.999899999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>21984.999800000001</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>18951.999400000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>26403.000400000001</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>37859.9997</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>12719.0008</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>22807.999800000001</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>25349</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>15334</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>21997.000800000002</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>31790.001799999998</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>29457.999299999999</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>30808.000800000002</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>24289.000499999998</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>69507.001099999994</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>-10012.0003</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>31952.999500000002</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <v>16304.000099999999</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="5">
         <v>36745.999499999998</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <v>47420.999900000003</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <v>38606.999900000003</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="5">
         <v>30570.999100000001</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="5">
         <v>44696.999600000003</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="5">
         <v>39303.999300000003</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="5">
         <v>77516.000400000004</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="5">
         <v>45369.000599999999</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="5">
         <v>42677.999600000003</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="5">
         <v>51740.999400000001</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="5">
         <v>46495.999300000003</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="5">
         <v>46205.999499999998</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="5">
         <v>53941.3</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="5">
         <v>66796.997199999998</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="5">
         <v>52891.096899999997</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="5">
         <v>51378.797299999998</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AP12" s="5">
         <v>53095.996899999998</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AQ12" s="5">
         <v>59812.395900000003</v>
       </c>
-      <c r="AR12" s="6">
+      <c r="AR12" s="5">
         <v>69647.505300000004</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AS12" s="5">
         <v>55495.665699999998</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="5">
         <v>69284.049100000004</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AU12" s="5">
         <v>77293.095100000006</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AV12" s="5">
         <v>75437.867299999998</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="AW12" s="5">
         <v>73905.648100000006</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AX12" s="5">
         <v>80793.525200000004</v>
       </c>
-      <c r="AY12" s="6">
+      <c r="AY12" s="5">
         <v>85398.320099999997</v>
       </c>
-      <c r="AZ12" s="6">
+      <c r="AZ12" s="5">
         <v>89310.628800000006</v>
       </c>
-      <c r="BA12" s="6">
+      <c r="BA12" s="5">
         <v>-5244</v>
       </c>
-      <c r="BB12" s="6">
+      <c r="BB12" s="5">
         <v>5989</v>
       </c>
-      <c r="BC12" s="6">
+      <c r="BC12" s="5">
         <v>3610</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>52948</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>172752</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>167432.9999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>197920.00020000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>194124.00020000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>219869.0001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>288781</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>240988</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>251584</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>271383</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>291787</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>299892</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>354069</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>376988.022</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>343317.00329999998</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>359067</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>397772.99939999997</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>435877.0013</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>453183</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>437133</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>525933</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>487767</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>531067</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <v>522283.99930000002</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <v>585371.99879999994</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <v>572916</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <v>586250</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="5">
         <v>659433</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="5">
         <v>525274</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="5">
         <v>472156.00420000002</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="5">
         <v>448395.00380000001</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="5">
         <v>508724.00030000001</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="5">
         <v>511453.9975</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="5">
         <v>474992.00280000002</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="5">
         <v>484579.99890000001</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="5">
         <v>523407.99709999998</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="5">
         <v>557687.35719999997</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="5">
         <v>560226.39650000003</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="5">
         <v>633050.66509999998</v>
       </c>
-      <c r="AO13" s="6">
+      <c r="AO13" s="5">
         <v>641528.57779999997</v>
       </c>
-      <c r="AP13" s="6">
+      <c r="AP13" s="5">
         <v>622663.25939999998</v>
       </c>
-      <c r="AQ13" s="6">
+      <c r="AQ13" s="5">
         <v>604683.14549999998</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AR13" s="5">
         <v>656466.0993</v>
       </c>
-      <c r="AS13" s="6">
+      <c r="AS13" s="5">
         <v>631013.55469999998</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="5">
         <v>678960.77780000004</v>
       </c>
-      <c r="AU13" s="6">
+      <c r="AU13" s="5">
         <v>621412.75100000005</v>
       </c>
-      <c r="AV13" s="6">
+      <c r="AV13" s="5">
         <v>525168.04630000005</v>
       </c>
-      <c r="AW13" s="6">
+      <c r="AW13" s="5">
         <v>469731.67800000001</v>
       </c>
-      <c r="AX13" s="6">
+      <c r="AX13" s="5">
         <v>572458.47019999998</v>
       </c>
-      <c r="AY13" s="6">
+      <c r="AY13" s="5">
         <v>685226.28599999996</v>
       </c>
-      <c r="AZ13" s="6">
+      <c r="AZ13" s="5">
         <v>637425.31640000001</v>
       </c>
-      <c r="BA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="6">
+      <c r="BA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>50711.0003</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>860594.99990000005</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>850052.00069999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>855496.99950000003</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>873802.99899999995</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>947434.99959999998</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>1009161.9997</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>1057744.9994000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>1073233</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>1013142.9999000001</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>1004621.0003</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>1086287.0014</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>1098387.0031999999</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>1025369.0033</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>911805.00219999999</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>935419.99930000002</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>902605.99739999999</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>940953.99890000001</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>1006478.9978</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>977744.00320000004</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>950007.00630000001</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>940664.01049999997</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>939970.0085</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>938785.00919999997</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <v>910580.00549999997</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <v>872305.00320000004</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="5">
         <v>918421.99990000005</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="5">
         <v>865138.99939999997</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="5">
         <v>908542.00089999998</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="5">
         <v>958834.99899999995</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="5">
         <v>890555.99679999996</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="5">
         <v>908483.0013</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AH14" s="5">
         <v>757796.99800000002</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="5">
         <v>895013.99699999997</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="5">
         <v>808457.19440000004</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="5">
         <v>853660.09349999996</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="5">
         <v>868864.89339999994</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="5">
         <v>790643.98869999999</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="5">
         <v>868401.38800000004</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AO14" s="5">
         <v>804592.3848</v>
       </c>
-      <c r="AP14" s="6">
+      <c r="AP14" s="5">
         <v>724039.2818</v>
       </c>
-      <c r="AQ14" s="6">
+      <c r="AQ14" s="5">
         <v>848846.28060000006</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AR14" s="5">
         <v>794549.60710000002</v>
       </c>
-      <c r="AS14" s="6">
+      <c r="AS14" s="5">
         <v>822493.66130000004</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="5">
         <v>794284.32310000004</v>
       </c>
-      <c r="AU14" s="6">
+      <c r="AU14" s="5">
         <v>688344.32750000001</v>
       </c>
-      <c r="AV14" s="6">
+      <c r="AV14" s="5">
         <v>676252.99479999999</v>
       </c>
-      <c r="AW14" s="6">
+      <c r="AW14" s="5">
         <v>806488.75040000002</v>
       </c>
-      <c r="AX14" s="6">
+      <c r="AX14" s="5">
         <v>762258.62820000004</v>
       </c>
-      <c r="AY14" s="6">
+      <c r="AY14" s="5">
         <v>799824.32579999999</v>
       </c>
-      <c r="AZ14" s="6">
+      <c r="AZ14" s="5">
         <v>822179.79799999995</v>
       </c>
-      <c r="BA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="6">
+      <c r="BA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
         <v>12909.0002</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="5">
         <v>44188.998399999997</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="5">
         <v>63163.995300000002</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="5">
         <v>82848.003500000006</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="5">
         <v>84214.010200000004</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="5">
         <v>98861.998399999997</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="5">
         <v>89530.996299999999</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>95253.404599999994</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="5">
         <v>97338.603300000002</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>106902.5036</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="5">
         <v>110809.82180000001</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AP15" s="5">
         <v>114362.2634</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AQ15" s="5">
         <v>128524.10400000001</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR15" s="5">
         <v>144660.11600000001</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS15" s="5">
         <v>166942.772</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="5">
         <v>101132.0074</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AU15" s="5">
         <v>153860.0031</v>
       </c>
-      <c r="AV15" s="6">
+      <c r="AV15" s="5">
         <v>123493.94839999999</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="5">
         <v>104782.70359999999</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="5">
         <v>66614.408899999995</v>
       </c>
-      <c r="AY15" s="6">
+      <c r="AY15" s="5">
         <v>103980.5131</v>
       </c>
-      <c r="AZ15" s="6">
+      <c r="AZ15" s="5">
         <v>120056.1107</v>
       </c>
-      <c r="BA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="6">
+      <c r="BA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="6">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="6">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="5">
         <v>42797546.5616</v>
       </c>
-      <c r="BB16" s="6">
+      <c r="BB16" s="5">
         <v>41997992.686099999</v>
       </c>
-      <c r="BC16" s="6">
+      <c r="BC16" s="5">
         <v>44263997.519900002</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>-159638.00039999999</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>835660.00069999998</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>833518.99939999997</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>701633</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>800086.00060000003</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>852666.00009999995</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>899706.99950000003</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>1085210.0001999999</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>646792.99990000005</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>924362.99860000005</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>904693.99970000004</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>1023782.9995</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>1076659.0001000001</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>1196629.9994000001</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>833827.99789999996</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>928253.99959999998</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>1020610.999</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>1060604.9992</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>1082330.9990000001</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>1026889.9999000001</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>1046980</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>1186852.9993</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>824537.00020000001</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <v>986365.99970000004</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="5">
         <v>1035953.0000999999</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>963491.99990000005</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>1058301.9992</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="5">
         <v>1070434.9979999999</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="5">
         <v>965553.99939999997</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AE17" s="5">
         <v>1030327.9992</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AF17" s="5">
         <v>1128863.9924000001</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="5">
         <v>1049507.9937</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="5">
         <v>734677.99589999998</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="5">
         <v>900641.89489999996</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="5">
         <v>939425.29619999998</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="5">
         <v>1001365.0968000001</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="5">
         <v>979013.99329999997</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="5">
         <v>967218.99430000002</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="5">
         <v>947432.83389999997</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AO17" s="5">
         <v>969585.89249999996</v>
       </c>
-      <c r="AP17" s="6">
+      <c r="AP17" s="5">
         <v>965893.19310000003</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AQ17" s="5">
         <v>1034360.3933</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AR17" s="5">
         <v>1102240.6118999999</v>
       </c>
-      <c r="AS17" s="6">
+      <c r="AS17" s="5">
         <v>1046844.3604</v>
       </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="5">
         <v>1056902.6470999999</v>
       </c>
-      <c r="AU17" s="6">
+      <c r="AU17" s="5">
         <v>1114921.8200999999</v>
       </c>
-      <c r="AV17" s="6">
+      <c r="AV17" s="5">
         <v>1058406.243</v>
       </c>
-      <c r="AW17" s="6">
+      <c r="AW17" s="5">
         <v>1080424.2146999999</v>
       </c>
-      <c r="AX17" s="6">
+      <c r="AX17" s="5">
         <v>1092977.0745999999</v>
       </c>
-      <c r="AY17" s="6">
+      <c r="AY17" s="5">
         <v>1082025.9846000001</v>
       </c>
-      <c r="AZ17" s="6">
+      <c r="AZ17" s="5">
         <v>1094637.4384000001</v>
       </c>
-      <c r="BA17" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="6">
+      <c r="BA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>678914.99710000004</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3864572.9914000002</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>3628987.9874</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>3770404.9896</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>3528435.9896999998</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>4082767.9918</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>3935085.9890000001</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>3988249.9912</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>4303999.9890999999</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4180575.9925000002</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>4418726.9899000004</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>4589786.9924999997</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>4973616.9984999998</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>4822953.9956999999</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>4436019.0009000003</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>4955055.9950000001</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <v>5158456.0004000003</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>5273541.0007999996</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>5466004.0027999999</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>5357266.6684999997</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>5423230.0040999996</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>4948337.3510999996</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>5051469.3641999997</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <v>5067694.0192999998</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <v>5393548.3554999996</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>5395855.3586999997</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>5288745.6946</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="5">
         <v>5205172.3628000002</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="5">
         <v>5556988.0327000003</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="5">
         <v>5614452.6968999999</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="5">
         <v>5506780.0365000004</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="5">
         <v>5110872.0374999996</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="5">
         <v>5312681.7078999998</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AI18" s="5">
         <v>5512406.0066999998</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="5">
         <v>5486910.8464000002</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AK18" s="5">
         <v>5350690.6080999998</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="5">
         <v>5578436.5122999996</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="5">
         <v>5402080.6776999999</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="5">
         <v>5252819.3178000003</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AO18" s="5">
         <v>5525715.3234999999</v>
       </c>
-      <c r="AP18" s="6">
+      <c r="AP18" s="5">
         <v>5393679.9911000002</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AQ18" s="5">
         <v>4929117.1667999998</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="AR18" s="5">
         <v>4787358.3971999995</v>
       </c>
-      <c r="AS18" s="6">
+      <c r="AS18" s="5">
         <v>5277586.4598000003</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT18" s="5">
         <v>5627754.2717000004</v>
       </c>
-      <c r="AU18" s="6">
+      <c r="AU18" s="5">
         <v>5151566.6777999997</v>
       </c>
-      <c r="AV18" s="6">
+      <c r="AV18" s="5">
         <v>5676749.7713000001</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AW18" s="5">
         <v>5712898.5094999997</v>
       </c>
-      <c r="AX18" s="6">
+      <c r="AX18" s="5">
         <v>5961952.7905000001</v>
       </c>
-      <c r="AY18" s="6">
+      <c r="AY18" s="5">
         <v>5790294.6383999996</v>
       </c>
-      <c r="AZ18" s="6">
+      <c r="AZ18" s="5">
         <v>5706861.5779999997</v>
       </c>
-      <c r="BA18" s="6">
+      <c r="BA18" s="5">
         <v>-61133.333299999998</v>
       </c>
-      <c r="BB18" s="6">
+      <c r="BB18" s="5">
         <v>-7800</v>
       </c>
-      <c r="BC18" s="6">
+      <c r="BC18" s="5">
         <v>-65583.333299999998</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>699898.00040000002</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4881192.0000999998</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>5495520.0004000003</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>5108583.0020000003</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>5245060.0014000004</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>5336629.9984999998</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>5716126</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>5541093.9989999998</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>6628259.9999000002</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>5867463.0022999998</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>6362785.0031000003</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>6117712.9974999996</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>6438049.9950000001</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>6829450.9907999998</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>7041790.9848999996</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>6634757.9857999999</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>7677733.9874999998</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>7759398.9868999999</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>8044350.9846999999</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>8540994.9802999999</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>8902004.9661999997</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>8273559.9632000001</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>7741668.9614000004</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <v>8706209.9595999997</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <v>9672697.9615000002</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>10176908.9586</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>9380310.9572999999</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <v>7279256.9606999997</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <v>12377215.9494</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <v>9570401.9513000008</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="5">
         <v>11324732.941099999</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="5">
         <v>8213944.9418000001</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="5">
         <v>11231450.951199999</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="5">
         <v>10593686.3453</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="5">
         <v>9670068.1574000008</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AK19" s="5">
         <v>9976165.5596999992</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="5">
         <v>9748007.1601</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="5">
         <v>8769880.6534000002</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="5">
         <v>9059328.0714999996</v>
       </c>
-      <c r="AO19" s="6">
+      <c r="AO19" s="5">
         <v>8497999.6819000002</v>
       </c>
-      <c r="AP19" s="6">
+      <c r="AP19" s="5">
         <v>9498598.7368999999</v>
       </c>
-      <c r="AQ19" s="6">
+      <c r="AQ19" s="5">
         <v>10444707.852600001</v>
       </c>
-      <c r="AR19" s="6">
+      <c r="AR19" s="5">
         <v>8664507.0936999992</v>
       </c>
-      <c r="AS19" s="6">
+      <c r="AS19" s="5">
         <v>9150852.9671</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AT19" s="5">
         <v>8626681.2829</v>
       </c>
-      <c r="AU19" s="6">
+      <c r="AU19" s="5">
         <v>9534508.2725000009</v>
       </c>
-      <c r="AV19" s="6">
+      <c r="AV19" s="5">
         <v>8896933.0624000002</v>
       </c>
-      <c r="AW19" s="6">
+      <c r="AW19" s="5">
         <v>9291958.8587999996</v>
       </c>
-      <c r="AX19" s="6">
+      <c r="AX19" s="5">
         <v>9460349.5609000009</v>
       </c>
-      <c r="AY19" s="6">
+      <c r="AY19" s="5">
         <v>8829742.9627</v>
       </c>
-      <c r="AZ19" s="6">
+      <c r="AZ19" s="5">
         <v>9378033.3037999999</v>
       </c>
-      <c r="BA19" s="6">
+      <c r="BA19" s="5">
         <v>-484401</v>
       </c>
-      <c r="BB19" s="6">
+      <c r="BB19" s="5">
         <v>-399266.3333</v>
       </c>
-      <c r="BC19" s="6">
+      <c r="BC19" s="5">
         <v>-472016.6667</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>40821.001799999998</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>173437.9975</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>181871.9958</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>187904.00399999999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>209992.99770000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>220142.0031</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>233464.9999</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>225431.99890000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>235589.0019</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>282725.0013</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>283734.00189999997</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>267399.00209999998</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>347531.00040000002</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>335080.99729999999</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>241104.00440000001</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>259452.9976</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <v>417209.99660000001</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>426903</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>426413.00079999998</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <v>432290.00069999998</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>460943.99969999999</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>494747.99969999999</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <v>489731.00040000002</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <v>363568.00150000001</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <v>499743.00060000003</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>528894.00430000003</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>581237.00230000005</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="5">
         <v>630796.00430000003</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="5">
         <v>386942.0061</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AE20" s="5">
         <v>320167.00270000001</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF20" s="5">
         <v>147720.0025</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="5">
         <v>356286.0024</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH20" s="5">
         <v>383374.00390000001</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="5">
         <v>714887.60620000004</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="5">
         <v>738871.20409999997</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AK20" s="5">
         <v>667663.50520000001</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="5">
         <v>640797.20609999995</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="5">
         <v>687435.6581</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="5">
         <v>547850.85470000003</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AO20" s="5">
         <v>826548.7537</v>
       </c>
-      <c r="AP20" s="6">
+      <c r="AP20" s="5">
         <v>928562.8345</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ20" s="5">
         <v>871044.9497</v>
       </c>
-      <c r="AR20" s="6">
+      <c r="AR20" s="5">
         <v>870119.45779999997</v>
       </c>
-      <c r="AS20" s="6">
+      <c r="AS20" s="5">
         <v>856588.77650000004</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AT20" s="5">
         <v>1014596.889</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU20" s="5">
         <v>978072.53879999998</v>
       </c>
-      <c r="AV20" s="6">
+      <c r="AV20" s="5">
         <v>973875.5111</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AW20" s="5">
         <v>993691.85580000002</v>
       </c>
-      <c r="AX20" s="6">
+      <c r="AX20" s="5">
         <v>1022548.7747</v>
       </c>
-      <c r="AY20" s="6">
+      <c r="AY20" s="5">
         <v>1076098.6103000001</v>
       </c>
-      <c r="AZ20" s="6">
+      <c r="AZ20" s="5">
         <v>1100543.3247</v>
       </c>
-      <c r="BA20" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="6">
+      <c r="BA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>28750</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>184067</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>210633</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>225000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>290000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>341733</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>345467</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>423500</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>385533</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>529050</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>513795</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>538158</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>544795</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>632119.00020000001</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>713874.00029999996</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>370814.00030000001</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>557440</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>632103.00009999995</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>580671.00009999995</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <v>610432.0111</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>583682.99560000002</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <v>655417.00170000002</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <v>646473.00100000005</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <v>746120.00060000003</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="5">
         <v>693023.00040000002</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <v>825309.99580000003</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="5">
         <v>443033</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="5">
         <v>573974</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="5">
         <v>380227.99670000002</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AE21" s="5">
         <v>348358.99619999999</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AF21" s="5">
         <v>556781.99589999998</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AG21" s="5">
         <v>723930.99650000001</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AH21" s="5">
         <v>447414.99780000001</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AI21" s="5">
         <v>570962.99930000002</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="5">
         <v>601649.00230000005</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="5">
         <v>652366.99029999995</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="5">
         <v>656995.50219999999</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="5">
         <v>632937.17209999997</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="5">
         <v>646939.77390000003</v>
       </c>
-      <c r="AO21" s="6">
+      <c r="AO21" s="5">
         <v>637486.87520000001</v>
       </c>
-      <c r="AP21" s="6">
+      <c r="AP21" s="5">
         <v>646086.92150000005</v>
       </c>
-      <c r="AQ21" s="6">
+      <c r="AQ21" s="5">
         <v>707890.99910000002</v>
       </c>
-      <c r="AR21" s="6">
+      <c r="AR21" s="5">
         <v>569902.12569999998</v>
       </c>
-      <c r="AS21" s="6">
+      <c r="AS21" s="5">
         <v>598017.81030000001</v>
       </c>
-      <c r="AT21" s="6">
+      <c r="AT21" s="5">
         <v>522203.15820000001</v>
       </c>
-      <c r="AU21" s="6">
+      <c r="AU21" s="5">
         <v>493978.24089999998</v>
       </c>
-      <c r="AV21" s="6">
+      <c r="AV21" s="5">
         <v>445285.8406</v>
       </c>
-      <c r="AW21" s="6">
+      <c r="AW21" s="5">
         <v>375714.47070000001</v>
       </c>
-      <c r="AX21" s="6">
+      <c r="AX21" s="5">
         <v>180065.86979999999</v>
       </c>
-      <c r="AY21" s="6">
+      <c r="AY21" s="5">
         <v>252242.3751</v>
       </c>
-      <c r="AZ21" s="6">
+      <c r="AZ21" s="5">
         <v>176743.1103</v>
       </c>
-      <c r="BA21" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="6">
+      <c r="BA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>4295.9991</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>16595.002</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>14731.0026</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>18688.999</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>21211.998800000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>24141.999299999999</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>26412.998599999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>33963.998</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>28198.000400000001</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>40448.997199999998</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>37850.998500000002</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>34346.999499999998</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>39786.998399999997</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>61588.999900000003</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>38634.999400000001</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>48551.999799999998</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>69459.0003</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>58720.998599999999</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>62749.000899999999</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>58652.000500000002</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>67676.000799999994</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="5">
         <v>87744.000599999999</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <v>94005.999800000005</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <v>106544.0009</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <v>93617.000199999995</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <v>108559.9997</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="5">
         <v>97171.001000000004</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AC22" s="5">
         <v>119885.0007</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AD22" s="5">
         <v>112966.0009</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AE22" s="5">
         <v>90728.999800000005</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="5">
         <v>107310.00109999999</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AG22" s="5">
         <v>127123.0007</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AH22" s="5">
         <v>106530.001</v>
       </c>
-      <c r="AI22" s="6">
+      <c r="AI22" s="5">
         <v>86773.001499999998</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="5">
         <v>96958.600999999995</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AK22" s="5">
         <v>91735.901500000007</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AL22" s="5">
         <v>134579.49919999999</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AM22" s="5">
         <v>83158.198900000003</v>
       </c>
-      <c r="AN22" s="6">
+      <c r="AN22" s="5">
         <v>146240.39110000001</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AO22" s="5">
         <v>136115.69089999999</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AP22" s="5">
         <v>150926.19029999999</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AQ22" s="5">
         <v>224742.7843</v>
       </c>
-      <c r="AR22" s="6">
+      <c r="AR22" s="5">
         <v>222891.7936</v>
       </c>
-      <c r="AS22" s="6">
+      <c r="AS22" s="5">
         <v>202660.26329999999</v>
       </c>
-      <c r="AT22" s="6">
+      <c r="AT22" s="5">
         <v>244345.80790000001</v>
       </c>
-      <c r="AU22" s="6">
+      <c r="AU22" s="5">
         <v>115107.0827</v>
       </c>
-      <c r="AV22" s="6">
+      <c r="AV22" s="5">
         <v>134496.25469999999</v>
       </c>
-      <c r="AW22" s="6">
+      <c r="AW22" s="5">
         <v>159982.09460000001</v>
       </c>
-      <c r="AX22" s="6">
+      <c r="AX22" s="5">
         <v>178633.59700000001</v>
       </c>
-      <c r="AY22" s="6">
+      <c r="AY22" s="5">
         <v>214096.24239999999</v>
       </c>
-      <c r="AZ22" s="6">
+      <c r="AZ22" s="5">
         <v>195928.70980000001</v>
       </c>
-      <c r="BA22" s="6">
+      <c r="BA22" s="5">
         <v>682.1</v>
       </c>
-      <c r="BB22" s="6">
+      <c r="BB22" s="5">
         <v>1458.1833999999999</v>
       </c>
-      <c r="BC22" s="6">
+      <c r="BC22" s="5">
         <v>405.88330000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>267191.00020000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>1989868.0003</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2067449.0001999999</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>2214888.9985000002</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>2418023.9989</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>2521348.9991000001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>2600941.0010000002</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>2738728.9997999999</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>2950707.9994999999</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>2946620.9989999998</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>3325952.9978</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>3385328.9994000001</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>3355665.0003999998</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>3547780.0016000001</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>3076045.0030999999</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>3230797.9997999999</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="5">
         <v>3786440.9980000001</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="5">
         <v>3679282.9970999998</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <v>3746786.9970999998</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="5">
         <v>4075494.9945999999</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="5">
         <v>4112833.9969000001</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="5">
         <v>3708813.9959</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="5">
         <v>4656132.9967</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <v>4188630.9961000001</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Z23" s="5">
         <v>4299461.9923999999</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="5">
         <v>4218641.9911000002</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23" s="5">
         <v>4307008.9863</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AC23" s="5">
         <v>4832293.9864999996</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AD23" s="5">
         <v>4254039.9839000003</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AE23" s="5">
         <v>4132135.9810000001</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AF23" s="5">
         <v>4888262.9782999996</v>
       </c>
-      <c r="AG23" s="6">
+      <c r="AG23" s="5">
         <v>4773629.9741000002</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AH23" s="5">
         <v>4644358.9748</v>
       </c>
-      <c r="AI23" s="6">
+      <c r="AI23" s="5">
         <v>4775914.4727999996</v>
       </c>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="5">
         <v>4912919.0785999997</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AK23" s="5">
         <v>4935936.3712999998</v>
       </c>
-      <c r="AL23" s="6">
+      <c r="AL23" s="5">
         <v>4918689.4698999999</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AM23" s="5">
         <v>5149236.3464000002</v>
       </c>
-      <c r="AN23" s="6">
+      <c r="AN23" s="5">
         <v>5243277.0428999998</v>
       </c>
-      <c r="AO23" s="6">
+      <c r="AO23" s="5">
         <v>5182230.2364999996</v>
       </c>
-      <c r="AP23" s="6">
+      <c r="AP23" s="5">
         <v>5507114.4369999999</v>
       </c>
-      <c r="AQ23" s="6">
+      <c r="AQ23" s="5">
         <v>5468909.1357000005</v>
       </c>
-      <c r="AR23" s="6">
+      <c r="AR23" s="5">
         <v>5551826.8151000002</v>
       </c>
-      <c r="AS23" s="6">
+      <c r="AS23" s="5">
         <v>5593060.6133000003</v>
       </c>
-      <c r="AT23" s="6">
+      <c r="AT23" s="5">
         <v>5820949.0542000001</v>
       </c>
-      <c r="AU23" s="6">
+      <c r="AU23" s="5">
         <v>5892152.1765000001</v>
       </c>
-      <c r="AV23" s="6">
+      <c r="AV23" s="5">
         <v>5806024.5941000003</v>
       </c>
-      <c r="AW23" s="6">
+      <c r="AW23" s="5">
         <v>5781318.9611</v>
       </c>
-      <c r="AX23" s="6">
+      <c r="AX23" s="5">
         <v>5689331.7719999999</v>
       </c>
-      <c r="AY23" s="6">
+      <c r="AY23" s="5">
         <v>5709763.1664000005</v>
       </c>
-      <c r="AZ23" s="6">
+      <c r="AZ23" s="5">
         <v>5633886.6996999998</v>
       </c>
-      <c r="BA23" s="6">
+      <c r="BA23" s="5">
         <v>-19000</v>
       </c>
-      <c r="BB23" s="6">
+      <c r="BB23" s="5">
         <v>1000</v>
       </c>
-      <c r="BC23" s="6">
+      <c r="BC23" s="5">
         <v>-33166.666700000002</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>118108</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>483564.00030000001</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>526430.00049999997</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>628612.9987</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>735320.99919999996</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>827394.99939999997</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>937041.99970000004</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>1224008.9990999999</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>1326217.0001999999</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>1431023.0001000001</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>1530853.9992</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>2396969.0003999998</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>2333841.9989999998</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>2341405.0005999999</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>2361274.9986999999</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>2171333.9978</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>3166472.9981</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>3356792.9997999999</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>3245369.0011</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>3586599.9996000002</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>3749344.9999000002</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <v>3877856.0002000001</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="5">
         <v>4152933.9989</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <v>4298010.0009000003</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z24" s="5">
         <v>4754998.9989999998</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <v>4910223.9993000003</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="5">
         <v>4940149.0033</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="5">
         <v>5059848.0044</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD24" s="5">
         <v>5808974.0021000002</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AE24" s="5">
         <v>5132431.9982000003</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AF24" s="5">
         <v>5739836.0050999997</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AG24" s="5">
         <v>5973032.0056999996</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AH24" s="5">
         <v>6116008.0055</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AI24" s="5">
         <v>5837947.0044</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="5">
         <v>5968169.0000999998</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AK24" s="5">
         <v>6051945.0025000004</v>
       </c>
-      <c r="AL24" s="6">
+      <c r="AL24" s="5">
         <v>6272902</v>
       </c>
-      <c r="AM24" s="6">
+      <c r="AM24" s="5">
         <v>6625659.9099000003</v>
       </c>
-      <c r="AN24" s="6">
+      <c r="AN24" s="5">
         <v>6935594.9380999999</v>
       </c>
-      <c r="AO24" s="6">
+      <c r="AO24" s="5">
         <v>6874694.9428000003</v>
       </c>
-      <c r="AP24" s="6">
+      <c r="AP24" s="5">
         <v>6769771.9493000004</v>
       </c>
-      <c r="AQ24" s="6">
+      <c r="AQ24" s="5">
         <v>7116979.9495000001</v>
       </c>
-      <c r="AR24" s="6">
+      <c r="AR24" s="5">
         <v>7127950.9491999997</v>
       </c>
-      <c r="AS24" s="6">
+      <c r="AS24" s="5">
         <v>7268186.3162000002</v>
       </c>
-      <c r="AT24" s="6">
+      <c r="AT24" s="5">
         <v>7282082.5521999998</v>
       </c>
-      <c r="AU24" s="6">
+      <c r="AU24" s="5">
         <v>7064685.1124999998</v>
       </c>
-      <c r="AV24" s="6">
+      <c r="AV24" s="5">
         <v>7130403.4603000004</v>
       </c>
-      <c r="AW24" s="6">
+      <c r="AW24" s="5">
         <v>7192398.0022999998</v>
       </c>
-      <c r="AX24" s="6">
+      <c r="AX24" s="5">
         <v>7014853.8097000001</v>
       </c>
-      <c r="AY24" s="6">
+      <c r="AY24" s="5">
         <v>7130946.6471999995</v>
       </c>
-      <c r="AZ24" s="6">
+      <c r="AZ24" s="5">
         <v>7435140.3530000001</v>
       </c>
-      <c r="BA24" s="6">
+      <c r="BA24" s="5">
         <v>7493665.4188000001</v>
       </c>
-      <c r="BB24" s="6">
+      <c r="BB24" s="5">
         <v>7695188.7219000002</v>
       </c>
-      <c r="BC24" s="6">
+      <c r="BC24" s="5">
         <v>7871931.7960000001</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="6">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
         <v>19258.998899999999</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF25" s="5">
         <v>41447.996700000003</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AG25" s="5">
         <v>5646.9979999999996</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AH25" s="5">
         <v>14191.625099999999</v>
       </c>
-      <c r="AI25" s="6">
+      <c r="AI25" s="5">
         <v>49767.1656</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="5">
         <v>119967.4408</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AK25" s="5">
         <v>134113.2421</v>
       </c>
-      <c r="AL25" s="6">
+      <c r="AL25" s="5">
         <v>165943.6967</v>
       </c>
-      <c r="AM25" s="6">
+      <c r="AM25" s="5">
         <v>161794.83730000001</v>
       </c>
-      <c r="AN25" s="6">
+      <c r="AN25" s="5">
         <v>149769.93979999999</v>
       </c>
-      <c r="AO25" s="6">
+      <c r="AO25" s="5">
         <v>144997.2689</v>
       </c>
-      <c r="AP25" s="6">
+      <c r="AP25" s="5">
         <v>158570.15659999999</v>
       </c>
-      <c r="AQ25" s="6">
+      <c r="AQ25" s="5">
         <v>154993.91759999999</v>
       </c>
-      <c r="AR25" s="6">
+      <c r="AR25" s="5">
         <v>144222.28390000001</v>
       </c>
-      <c r="AS25" s="6">
+      <c r="AS25" s="5">
         <v>180787.614</v>
       </c>
-      <c r="AT25" s="6">
+      <c r="AT25" s="5">
         <v>130850.1559</v>
       </c>
-      <c r="AU25" s="6">
+      <c r="AU25" s="5">
         <v>115138.8518</v>
       </c>
-      <c r="AV25" s="6">
+      <c r="AV25" s="5">
         <v>88113.153099999996</v>
       </c>
-      <c r="AW25" s="6">
+      <c r="AW25" s="5">
         <v>98595.059299999994</v>
       </c>
-      <c r="AX25" s="6">
+      <c r="AX25" s="5">
         <v>101030.448</v>
       </c>
-      <c r="AY25" s="6">
+      <c r="AY25" s="5">
         <v>101186.5965</v>
       </c>
-      <c r="AZ25" s="6">
+      <c r="AZ25" s="5">
         <v>94972.922099999996</v>
       </c>
-      <c r="BA25" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="6">
+      <c r="BA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="6">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
         <v>1554.0001999999999</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="5">
         <v>8800.0010000000002</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AG26" s="5">
         <v>37149.990899999997</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AH26" s="5">
         <v>67613.455199999997</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AI26" s="5">
         <v>66181.324900000007</v>
       </c>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="5">
         <v>108337.1917</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AK26" s="5">
         <v>135057.11859999999</v>
       </c>
-      <c r="AL26" s="6">
+      <c r="AL26" s="5">
         <v>158427.5411</v>
       </c>
-      <c r="AM26" s="6">
+      <c r="AM26" s="5">
         <v>173243.6753</v>
       </c>
-      <c r="AN26" s="6">
+      <c r="AN26" s="5">
         <v>204320.12940000001</v>
       </c>
-      <c r="AO26" s="6">
+      <c r="AO26" s="5">
         <v>208313.1568</v>
       </c>
-      <c r="AP26" s="6">
+      <c r="AP26" s="5">
         <v>173069.00570000001</v>
       </c>
-      <c r="AQ26" s="6">
+      <c r="AQ26" s="5">
         <v>197288.30189999999</v>
       </c>
-      <c r="AR26" s="6">
+      <c r="AR26" s="5">
         <v>193421.2782</v>
       </c>
-      <c r="AS26" s="6">
+      <c r="AS26" s="5">
         <v>213423.2022</v>
       </c>
-      <c r="AT26" s="6">
+      <c r="AT26" s="5">
         <v>230080.01620000001</v>
       </c>
-      <c r="AU26" s="6">
+      <c r="AU26" s="5">
         <v>203783.05869999999</v>
       </c>
-      <c r="AV26" s="6">
+      <c r="AV26" s="5">
         <v>209777.15890000001</v>
       </c>
-      <c r="AW26" s="6">
+      <c r="AW26" s="5">
         <v>222626.12609999999</v>
       </c>
-      <c r="AX26" s="6">
+      <c r="AX26" s="5">
         <v>179782.90239999999</v>
       </c>
-      <c r="AY26" s="6">
+      <c r="AY26" s="5">
         <v>193218.72380000001</v>
       </c>
-      <c r="AZ26" s="6">
+      <c r="AZ26" s="5">
         <v>196958.595</v>
       </c>
-      <c r="BA26" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="6">
+      <c r="BA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0</v>
-      </c>
-      <c r="V27" s="6">
-        <v>0</v>
-      </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="6">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="5">
         <v>61194.400300000001</v>
       </c>
-      <c r="AM27" s="6">
+      <c r="AM27" s="5">
         <v>144159.9958</v>
       </c>
-      <c r="AN27" s="6">
+      <c r="AN27" s="5">
         <v>133274.36660000001</v>
       </c>
-      <c r="AO27" s="6">
+      <c r="AO27" s="5">
         <v>172297.02059999999</v>
       </c>
-      <c r="AP27" s="6">
+      <c r="AP27" s="5">
         <v>189867.78589999999</v>
       </c>
-      <c r="AQ27" s="6">
+      <c r="AQ27" s="5">
         <v>220698.4209</v>
       </c>
-      <c r="AR27" s="6">
+      <c r="AR27" s="5">
         <v>226872.0411</v>
       </c>
-      <c r="AS27" s="6">
+      <c r="AS27" s="5">
         <v>233144.18</v>
       </c>
-      <c r="AT27" s="6">
+      <c r="AT27" s="5">
         <v>250616.48970000001</v>
       </c>
-      <c r="AU27" s="6">
+      <c r="AU27" s="5">
         <v>238828.2806</v>
       </c>
-      <c r="AV27" s="6">
+      <c r="AV27" s="5">
         <v>221906.9736</v>
       </c>
-      <c r="AW27" s="6">
+      <c r="AW27" s="5">
         <v>232284.39069999999</v>
       </c>
-      <c r="AX27" s="6">
+      <c r="AX27" s="5">
         <v>214566.78709999999</v>
       </c>
-      <c r="AY27" s="6">
+      <c r="AY27" s="5">
         <v>212232.08749999999</v>
       </c>
-      <c r="AZ27" s="6">
+      <c r="AZ27" s="5">
         <v>241389.73060000001</v>
       </c>
-      <c r="BA27" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="6">
+      <c r="BA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
         <v>7866.9998999999998</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>7935.9980999999998</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>10695.0038</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>7252.0003999999999</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>7058.0006999999996</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>10334.9985</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>10077.000099999999</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>9934.9995999999992</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>8344.0002000000004</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>13692.001399999999</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>10975.9997</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>9811.9979999999996</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>14740.999100000001</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>10517.002399999999</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5">
         <v>9083.0010000000002</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>13429.9985</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="5">
         <v>16795.000800000002</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="5">
         <v>12204.0016</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="5">
         <v>13765.999400000001</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="5">
         <v>12889.001700000001</v>
       </c>
-      <c r="W28" s="6">
+      <c r="W28" s="5">
         <v>9527.0004000000008</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="5">
         <v>12534.998600000001</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="5">
         <v>14246.9992</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="Z28" s="5">
         <v>15120.0005</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="5">
         <v>12971.0015</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AB28" s="5">
         <v>17027.998899999999</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AC28" s="5">
         <v>19612.998500000002</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AD28" s="5">
         <v>12945.002399999999</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AE28" s="5">
         <v>15815.000899999999</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AF28" s="5">
         <v>21772.001100000001</v>
       </c>
-      <c r="AG28" s="6">
+      <c r="AG28" s="5">
         <v>11590.998</v>
       </c>
-      <c r="AH28" s="6">
+      <c r="AH28" s="5">
         <v>21201.640500000001</v>
       </c>
-      <c r="AI28" s="6">
+      <c r="AI28" s="5">
         <v>9075.0699000000004</v>
       </c>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="5">
         <v>8847.3595999999998</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AK28" s="5">
         <v>6585.7611999999999</v>
       </c>
-      <c r="AL28" s="6">
+      <c r="AL28" s="5">
         <v>8643.4385000000002</v>
       </c>
-      <c r="AM28" s="6">
+      <c r="AM28" s="5">
         <v>8810.5015999999996</v>
       </c>
-      <c r="AN28" s="6">
+      <c r="AN28" s="5">
         <v>9084.3981999999996</v>
       </c>
-      <c r="AO28" s="6">
+      <c r="AO28" s="5">
         <v>8834.2425000000003</v>
       </c>
-      <c r="AP28" s="6">
+      <c r="AP28" s="5">
         <v>10562.217000000001</v>
       </c>
-      <c r="AQ28" s="6">
+      <c r="AQ28" s="5">
         <v>15523.023300000001</v>
       </c>
-      <c r="AR28" s="6">
+      <c r="AR28" s="5">
         <v>16278.454599999999</v>
       </c>
-      <c r="AS28" s="6">
+      <c r="AS28" s="5">
         <v>28811.9257</v>
       </c>
-      <c r="AT28" s="6">
+      <c r="AT28" s="5">
         <v>15906.514999999999</v>
       </c>
-      <c r="AU28" s="6">
+      <c r="AU28" s="5">
         <v>22747.1165</v>
       </c>
-      <c r="AV28" s="6">
+      <c r="AV28" s="5">
         <v>14123.639800000001</v>
       </c>
-      <c r="AW28" s="6">
+      <c r="AW28" s="5">
         <v>12027.799000000001</v>
       </c>
-      <c r="AX28" s="6">
+      <c r="AX28" s="5">
         <v>15557.0067</v>
       </c>
-      <c r="AY28" s="6">
+      <c r="AY28" s="5">
         <v>20997.838400000001</v>
       </c>
-      <c r="AZ28" s="6">
+      <c r="AZ28" s="5">
         <v>21586.008699999998</v>
       </c>
-      <c r="BA28" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="6">
+      <c r="BA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>-228627.00020000001</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1274181.0003</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1442287.0004</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1210517.9979000001</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>1423866.9937</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1423049.9916999999</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1541873.9908</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>1513003.9916000001</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>1620264.9907</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>1854940.9920000001</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>1720638.9955</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>1488537.9919</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>2141599.0033999998</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>2209335.0073000002</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>1275500.0061000001</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>1716444.9983999999</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="5">
         <v>1701548.0094000001</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="5">
         <v>1740070.0078</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="5">
         <v>2158669.0059000002</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="5">
         <v>2079166.0077</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="5">
         <v>2239498.0099999998</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="5">
         <v>2153511.0044999998</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="5">
         <v>2094785.0075999999</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="5">
         <v>2234829.0090999999</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="Z29" s="5">
         <v>2532582.0060000001</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="5">
         <v>2177276.0081000002</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29" s="5">
         <v>2101851.0093</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AC29" s="5">
         <v>2382753.0109999999</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AD29" s="5">
         <v>2487661.0110999998</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AE29" s="5">
         <v>3260867.014</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AF29" s="5">
         <v>2719452.0038000001</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AG29" s="5">
         <v>2122206.0115999999</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AH29" s="5">
         <v>2293421.0150000001</v>
       </c>
-      <c r="AI29" s="6">
+      <c r="AI29" s="5">
         <v>2509358.2115000002</v>
       </c>
-      <c r="AJ29" s="6">
+      <c r="AJ29" s="5">
         <v>2366727.8202999998</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AK29" s="5">
         <v>1960917.5199</v>
       </c>
-      <c r="AL29" s="6">
+      <c r="AL29" s="5">
         <v>1471248.9168</v>
       </c>
-      <c r="AM29" s="6">
+      <c r="AM29" s="5">
         <v>1859771.6795999999</v>
       </c>
-      <c r="AN29" s="6">
+      <c r="AN29" s="5">
         <v>1677078.2897999999</v>
       </c>
-      <c r="AO29" s="6">
+      <c r="AO29" s="5">
         <v>1573917.885</v>
       </c>
-      <c r="AP29" s="6">
+      <c r="AP29" s="5">
         <v>1742501.8888999999</v>
       </c>
-      <c r="AQ29" s="6">
+      <c r="AQ29" s="5">
         <v>1978140.6346</v>
       </c>
-      <c r="AR29" s="6">
+      <c r="AR29" s="5">
         <v>1926930.9680999999</v>
       </c>
-      <c r="AS29" s="6">
+      <c r="AS29" s="5">
         <v>2128788.0597999999</v>
       </c>
-      <c r="AT29" s="6">
+      <c r="AT29" s="5">
         <v>2292091.0668000001</v>
       </c>
-      <c r="AU29" s="6">
+      <c r="AU29" s="5">
         <v>1323563.6599999999</v>
       </c>
-      <c r="AV29" s="6">
+      <c r="AV29" s="5">
         <v>897811.60869999998</v>
       </c>
-      <c r="AW29" s="6">
+      <c r="AW29" s="5">
         <v>1347082.2875000001</v>
       </c>
-      <c r="AX29" s="6">
+      <c r="AX29" s="5">
         <v>909250.25899999996</v>
       </c>
-      <c r="AY29" s="6">
+      <c r="AY29" s="5">
         <v>1382460.7586999999</v>
       </c>
-      <c r="AZ29" s="6">
+      <c r="AZ29" s="5">
         <v>1625439.9901000001</v>
       </c>
-      <c r="BA29" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="6">
+      <c r="BA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>59272.999799999998</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>522578</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>537464.00089999998</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>579758.00109999999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>592720.99890000001</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>588290.99990000005</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>616197.99959999998</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>653050.99950000003</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>594293.99939999997</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>672957.00040000002</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>628449.99899999995</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>655257.99879999994</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>650511.00069999998</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>693811.00060000003</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>484971.00040000002</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5">
         <v>753827</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="5">
         <v>691463.99899999995</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>663968.99990000005</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="5">
         <v>701373.00089999998</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="5">
         <v>719267.00159999996</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="5">
         <v>781135.00080000004</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="5">
         <v>716504.99970000004</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <v>724185.00060000003</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="5">
         <v>703649.00260000001</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z30" s="5">
         <v>754480.00219999999</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="5">
         <v>642619.99950000003</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="5">
         <v>711675.00040000002</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC30" s="5">
         <v>726664.00230000005</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AD30" s="5">
         <v>757652.99970000004</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AE30" s="5">
         <v>736464.00100000005</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AF30" s="5">
         <v>690230.00109999999</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AG30" s="5">
         <v>799610</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AH30" s="5">
         <v>657140.00040000002</v>
       </c>
-      <c r="AI30" s="6">
+      <c r="AI30" s="5">
         <v>713294.60149999999</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AJ30" s="5">
         <v>675019.402</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AK30" s="5">
         <v>702473.80020000006</v>
       </c>
-      <c r="AL30" s="6">
+      <c r="AL30" s="5">
         <v>785173.60199999996</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AM30" s="5">
         <v>657200.69400000002</v>
       </c>
-      <c r="AN30" s="6">
+      <c r="AN30" s="5">
         <v>709938.59400000004</v>
       </c>
-      <c r="AO30" s="6">
+      <c r="AO30" s="5">
         <v>692247.99450000003</v>
       </c>
-      <c r="AP30" s="6">
+      <c r="AP30" s="5">
         <v>683001.6581</v>
       </c>
-      <c r="AQ30" s="6">
+      <c r="AQ30" s="5">
         <v>708938.37080000003</v>
       </c>
-      <c r="AR30" s="6">
+      <c r="AR30" s="5">
         <v>743416.19669999997</v>
       </c>
-      <c r="AS30" s="6">
+      <c r="AS30" s="5">
         <v>721266.59809999994</v>
       </c>
-      <c r="AT30" s="6">
+      <c r="AT30" s="5">
         <v>771421.71039999998</v>
       </c>
-      <c r="AU30" s="6">
+      <c r="AU30" s="5">
         <v>714555.65500000003</v>
       </c>
-      <c r="AV30" s="6">
+      <c r="AV30" s="5">
         <v>715239.49769999995</v>
       </c>
-      <c r="AW30" s="6">
+      <c r="AW30" s="5">
         <v>745699.52949999995</v>
       </c>
-      <c r="AX30" s="6">
+      <c r="AX30" s="5">
         <v>785126.65430000005</v>
       </c>
-      <c r="AY30" s="6">
+      <c r="AY30" s="5">
         <v>723366.67520000006</v>
       </c>
-      <c r="AZ30" s="6">
+      <c r="AZ30" s="5">
         <v>763060.50459999999</v>
       </c>
-      <c r="BA30" s="6">
+      <c r="BA30" s="5">
         <v>728954.92200000002</v>
       </c>
-      <c r="BB30" s="6">
+      <c r="BB30" s="5">
         <v>787543.09369999997</v>
       </c>
-      <c r="BC30" s="6">
+      <c r="BC30" s="5">
         <v>781544.20220000006</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
         <v>182483</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>256317</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>325717</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>335467</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>464083</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>505000</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>574633</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>500233</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>515617</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>502283.0001</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>445266.9999</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>517665.0013</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>538666.99939999997</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>457409.99910000002</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>595867.00049999997</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="5">
         <v>567400.00009999995</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="5">
         <v>632782.99800000002</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
         <v>477450.00079999998</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="5">
         <v>365717.00079999998</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="5">
         <v>288700</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="5">
         <v>673656.00009999995</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <v>731700.00679999997</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="5">
         <v>551284.00379999995</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="Z31" s="5">
         <v>560193.00419999997</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="5">
         <v>620208.00690000004</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB31" s="5">
         <v>824077.0013</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AC31" s="5">
         <v>334592.00140000001</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AD31" s="5">
         <v>243024.00210000001</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AE31" s="5">
         <v>1650229.0260000001</v>
       </c>
-      <c r="AF31" s="6">
+      <c r="AF31" s="5">
         <v>1544714.8774000001</v>
       </c>
-      <c r="AG31" s="6">
+      <c r="AG31" s="5">
         <v>1742163.4066000001</v>
       </c>
-      <c r="AH31" s="6">
+      <c r="AH31" s="5">
         <v>1636660.0966</v>
       </c>
-      <c r="AI31" s="6">
+      <c r="AI31" s="5">
         <v>1755456.2076000001</v>
       </c>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="5">
         <v>1966017.6058</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AK31" s="5">
         <v>1964537.6172</v>
       </c>
-      <c r="AL31" s="6">
+      <c r="AL31" s="5">
         <v>1985305.0367999999</v>
       </c>
-      <c r="AM31" s="6">
+      <c r="AM31" s="5">
         <v>2045587.6921000001</v>
       </c>
-      <c r="AN31" s="6">
+      <c r="AN31" s="5">
         <v>2222425.0765999998</v>
       </c>
-      <c r="AO31" s="6">
+      <c r="AO31" s="5">
         <v>2201128.8640999999</v>
       </c>
-      <c r="AP31" s="6">
+      <c r="AP31" s="5">
         <v>2242116.0696</v>
       </c>
-      <c r="AQ31" s="6">
+      <c r="AQ31" s="5">
         <v>2281107.4448000002</v>
       </c>
-      <c r="AR31" s="6">
+      <c r="AR31" s="5">
         <v>2267429.5739000002</v>
       </c>
-      <c r="AS31" s="6">
+      <c r="AS31" s="5">
         <v>1993076.5294999999</v>
       </c>
-      <c r="AT31" s="6">
+      <c r="AT31" s="5">
         <v>1554364.8504999999</v>
       </c>
-      <c r="AU31" s="6">
+      <c r="AU31" s="5">
         <v>1681087.2063</v>
       </c>
-      <c r="AV31" s="6">
+      <c r="AV31" s="5">
         <v>2001007.6873999999</v>
       </c>
-      <c r="AW31" s="6">
+      <c r="AW31" s="5">
         <v>2155712.0183000001</v>
       </c>
-      <c r="AX31" s="6">
+      <c r="AX31" s="5">
         <v>2034287.9275</v>
       </c>
-      <c r="AY31" s="6">
+      <c r="AY31" s="5">
         <v>1936126.6915</v>
       </c>
-      <c r="AZ31" s="6">
+      <c r="AZ31" s="5">
         <v>1668998.7176999999</v>
       </c>
-      <c r="BA31" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="6">
+      <c r="BA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>-88000</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>272751.9964</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>303648.99839999998</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>287303.00390000001</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>338326.00280000002</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>373794.99900000001</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>354791.00300000003</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>342054.00160000002</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>253061.9993</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>337794.99959999998</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>181251.00030000001</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>229277.0001</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>223152.99979999999</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="5">
         <v>152957.0001</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="5">
         <v>244357.00020000001</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="5">
         <v>235464.00020000001</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="5">
         <v>316543.00020000001</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W32" s="5">
         <v>330328</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X32" s="5">
         <v>373718.00060000003</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="5">
         <v>281893.00020000001</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="Z32" s="5">
         <v>449897.0013</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="5">
         <v>422033.99959999998</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32" s="5">
         <v>448271.99900000001</v>
       </c>
-      <c r="AC32" s="6">
+      <c r="AC32" s="5">
         <v>467018.99959999998</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AD32" s="5">
         <v>448388.99959999998</v>
       </c>
-      <c r="AE32" s="6">
+      <c r="AE32" s="5">
         <v>572914.00069999998</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AF32" s="5">
         <v>529177.00230000005</v>
       </c>
-      <c r="AG32" s="6">
+      <c r="AG32" s="5">
         <v>672811.0024</v>
       </c>
-      <c r="AH32" s="6">
+      <c r="AH32" s="5">
         <v>632178.99899999995</v>
       </c>
-      <c r="AI32" s="6">
+      <c r="AI32" s="5">
         <v>615094.59920000006</v>
       </c>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="5">
         <v>602880.50049999997</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AK32" s="5">
         <v>695854.4007</v>
       </c>
-      <c r="AL32" s="6">
+      <c r="AL32" s="5">
         <v>736902.10179999995</v>
       </c>
-      <c r="AM32" s="6">
+      <c r="AM32" s="5">
         <v>646394.09219999996</v>
       </c>
-      <c r="AN32" s="6">
+      <c r="AN32" s="5">
         <v>745496.2916</v>
       </c>
-      <c r="AO32" s="6">
+      <c r="AO32" s="5">
         <v>719582.19279999996</v>
       </c>
-      <c r="AP32" s="6">
+      <c r="AP32" s="5">
         <v>657369.28260000004</v>
       </c>
-      <c r="AQ32" s="6">
+      <c r="AQ32" s="5">
         <v>762650.31429999997</v>
       </c>
-      <c r="AR32" s="6">
+      <c r="AR32" s="5">
         <v>744236.88890000002</v>
       </c>
-      <c r="AS32" s="6">
+      <c r="AS32" s="5">
         <v>768014.08239999996</v>
       </c>
-      <c r="AT32" s="6">
+      <c r="AT32" s="5">
         <v>768858.28209999995</v>
       </c>
-      <c r="AU32" s="6">
+      <c r="AU32" s="5">
         <v>746508.4817</v>
       </c>
-      <c r="AV32" s="6">
+      <c r="AV32" s="5">
         <v>731085.41390000004</v>
       </c>
-      <c r="AW32" s="6">
+      <c r="AW32" s="5">
         <v>812172.22779999999</v>
       </c>
-      <c r="AX32" s="6">
+      <c r="AX32" s="5">
         <v>858924.78509999998</v>
       </c>
-      <c r="AY32" s="6">
+      <c r="AY32" s="5">
         <v>828079.64560000005</v>
       </c>
-      <c r="AZ32" s="6">
+      <c r="AZ32" s="5">
         <v>840347.03810000001</v>
       </c>
-      <c r="BA32" s="6">
+      <c r="BA32" s="5">
         <v>20000</v>
       </c>
-      <c r="BB32" s="6">
+      <c r="BB32" s="5">
         <v>-29000</v>
       </c>
-      <c r="BC32" s="6">
+      <c r="BC32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>12000</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>38000.000399999997</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>110000.0004</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>125000.0004</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>125000.0004</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>135000</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>153000</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>185802</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>179414.00039999999</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>182592</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>220102.99919999999</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>209607</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>164264.00020000001</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>116760.0015</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>156176.9999</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>240709.00169999999</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="5">
         <v>229190.99969999999</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="5">
         <v>254142.00409999999</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="5">
         <v>307069.00069999998</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="5">
         <v>309698.99959999998</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="5">
         <v>213434.99960000001</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W33" s="5">
         <v>383706.00219999999</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="5">
         <v>469968.00030000001</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="5">
         <v>139513.99900000001</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="Z33" s="5">
         <v>200556.00140000001</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="AA33" s="5">
         <v>190790.0006</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AB33" s="5">
         <v>156933</v>
       </c>
-      <c r="AC33" s="6">
+      <c r="AC33" s="5">
         <v>441534.00339999999</v>
       </c>
-      <c r="AD33" s="6">
+      <c r="AD33" s="5">
         <v>335417.01209999999</v>
       </c>
-      <c r="AE33" s="6">
+      <c r="AE33" s="5">
         <v>600683.02229999995</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AF33" s="5">
         <v>419590.01549999998</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AG33" s="5">
         <v>347046.99609999999</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AH33" s="5">
         <v>549776.00569999998</v>
       </c>
-      <c r="AI33" s="6">
+      <c r="AI33" s="5">
         <v>696168</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AJ33" s="5">
         <v>630301.00490000006</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AK33" s="5">
         <v>584465.00379999995</v>
       </c>
-      <c r="AL33" s="6">
+      <c r="AL33" s="5">
         <v>506873.40769999998</v>
       </c>
-      <c r="AM33" s="6">
+      <c r="AM33" s="5">
         <v>551025.99479999999</v>
       </c>
-      <c r="AN33" s="6">
+      <c r="AN33" s="5">
         <v>632516.89529999997</v>
       </c>
-      <c r="AO33" s="6">
+      <c r="AO33" s="5">
         <v>737549.00639999995</v>
       </c>
-      <c r="AP33" s="6">
+      <c r="AP33" s="5">
         <v>754993.89359999995</v>
       </c>
-      <c r="AQ33" s="6">
+      <c r="AQ33" s="5">
         <v>818238.70460000006</v>
       </c>
-      <c r="AR33" s="6">
+      <c r="AR33" s="5">
         <v>857062.79169999994</v>
       </c>
-      <c r="AS33" s="6">
+      <c r="AS33" s="5">
         <v>835125.61109999998</v>
       </c>
-      <c r="AT33" s="6">
+      <c r="AT33" s="5">
         <v>823573.23690000002</v>
       </c>
-      <c r="AU33" s="6">
+      <c r="AU33" s="5">
         <v>806767.14099999995</v>
       </c>
-      <c r="AV33" s="6">
+      <c r="AV33" s="5">
         <v>774944.82140000002</v>
       </c>
-      <c r="AW33" s="6">
+      <c r="AW33" s="5">
         <v>795874.74309999996</v>
       </c>
-      <c r="AX33" s="6">
+      <c r="AX33" s="5">
         <v>801900.20070000004</v>
       </c>
-      <c r="AY33" s="6">
+      <c r="AY33" s="5">
         <v>849223.61040000001</v>
       </c>
-      <c r="AZ33" s="6">
+      <c r="AZ33" s="5">
         <v>891225.44339999999</v>
       </c>
-      <c r="BA33" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="6">
+      <c r="BA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6">
-        <v>0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>0</v>
-      </c>
-      <c r="V34" s="6">
-        <v>0</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="6">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
         <v>1377157.0079999999</v>
       </c>
-      <c r="AF34" s="6">
+      <c r="AF34" s="5">
         <v>1794731.0127000001</v>
       </c>
-      <c r="AG34" s="6">
+      <c r="AG34" s="5">
         <v>1712206.0188</v>
       </c>
-      <c r="AH34" s="6">
+      <c r="AH34" s="5">
         <v>1650292.0131999999</v>
       </c>
-      <c r="AI34" s="6">
+      <c r="AI34" s="5">
         <v>1063122.0063</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AJ34" s="5">
         <v>1857460.1794</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AK34" s="5">
         <v>1647071.6206</v>
       </c>
-      <c r="AL34" s="6">
+      <c r="AL34" s="5">
         <v>1351710.4347000001</v>
       </c>
-      <c r="AM34" s="6">
+      <c r="AM34" s="5">
         <v>1863096.8085</v>
       </c>
-      <c r="AN34" s="6">
+      <c r="AN34" s="5">
         <v>3032098.6121999999</v>
       </c>
-      <c r="AO34" s="6">
+      <c r="AO34" s="5">
         <v>3451430.7902000002</v>
       </c>
-      <c r="AP34" s="6">
+      <c r="AP34" s="5">
         <v>3678976.9849</v>
       </c>
-      <c r="AQ34" s="6">
+      <c r="AQ34" s="5">
         <v>3076578.2371999999</v>
       </c>
-      <c r="AR34" s="6">
+      <c r="AR34" s="5">
         <v>3184757.9585000002</v>
       </c>
-      <c r="AS34" s="6">
+      <c r="AS34" s="5">
         <v>3220811.3717999998</v>
       </c>
-      <c r="AT34" s="6">
+      <c r="AT34" s="5">
         <v>3977437.9322000002</v>
       </c>
-      <c r="AU34" s="6">
+      <c r="AU34" s="5">
         <v>3632580.1135999998</v>
       </c>
-      <c r="AV34" s="6">
+      <c r="AV34" s="5">
         <v>3112871.9556999998</v>
       </c>
-      <c r="AW34" s="6">
+      <c r="AW34" s="5">
         <v>3700279.7932000002</v>
       </c>
-      <c r="AX34" s="6">
+      <c r="AX34" s="5">
         <v>3754190.2538000001</v>
       </c>
-      <c r="AY34" s="6">
+      <c r="AY34" s="5">
         <v>3696164.3004999999</v>
       </c>
-      <c r="AZ34" s="6">
+      <c r="AZ34" s="5">
         <v>3647744.2442000001</v>
       </c>
-      <c r="BA34" s="6">
+      <c r="BA34" s="5">
         <v>4021000.0260000001</v>
       </c>
-      <c r="BB34" s="6">
+      <c r="BB34" s="5">
         <v>3845688.1636999999</v>
       </c>
-      <c r="BC34" s="6">
+      <c r="BC34" s="5">
         <v>4438525.9935999997</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6">
-        <v>0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0</v>
-      </c>
-      <c r="W35" s="6">
-        <v>0</v>
-      </c>
-      <c r="X35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="6">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
         <v>275695.99339999998</v>
       </c>
-      <c r="AG35" s="6">
+      <c r="AG35" s="5">
         <v>233555.22</v>
       </c>
-      <c r="AH35" s="6">
+      <c r="AH35" s="5">
         <v>222994.23980000001</v>
       </c>
-      <c r="AI35" s="6">
+      <c r="AI35" s="5">
         <v>244469.37419999999</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AJ35" s="5">
         <v>234455.7885</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AK35" s="5">
         <v>241493.22510000001</v>
       </c>
-      <c r="AL35" s="6">
+      <c r="AL35" s="5">
         <v>249018.4932</v>
       </c>
-      <c r="AM35" s="6">
+      <c r="AM35" s="5">
         <v>263315.7415</v>
       </c>
-      <c r="AN35" s="6">
+      <c r="AN35" s="5">
         <v>283714.87540000002</v>
       </c>
-      <c r="AO35" s="6">
+      <c r="AO35" s="5">
         <v>275295.79820000002</v>
       </c>
-      <c r="AP35" s="6">
+      <c r="AP35" s="5">
         <v>285426.28629999998</v>
       </c>
-      <c r="AQ35" s="6">
+      <c r="AQ35" s="5">
         <v>283175.65529999998</v>
       </c>
-      <c r="AR35" s="6">
+      <c r="AR35" s="5">
         <v>293236.5048</v>
       </c>
-      <c r="AS35" s="6">
+      <c r="AS35" s="5">
         <v>280903.08740000002</v>
       </c>
-      <c r="AT35" s="6">
+      <c r="AT35" s="5">
         <v>356334.57390000002</v>
       </c>
-      <c r="AU35" s="6">
+      <c r="AU35" s="5">
         <v>341034.92940000002</v>
       </c>
-      <c r="AV35" s="6">
+      <c r="AV35" s="5">
         <v>212745.24479999999</v>
       </c>
-      <c r="AW35" s="6">
+      <c r="AW35" s="5">
         <v>337066.97340000002</v>
       </c>
-      <c r="AX35" s="6">
+      <c r="AX35" s="5">
         <v>387741.3126</v>
       </c>
-      <c r="AY35" s="6">
+      <c r="AY35" s="5">
         <v>201076.4773</v>
       </c>
-      <c r="AZ35" s="6">
+      <c r="AZ35" s="5">
         <v>328086.07799999998</v>
       </c>
-      <c r="BA35" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="6">
+      <c r="BA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="6">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6">
-        <v>0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0</v>
-      </c>
-      <c r="V36" s="6">
-        <v>0</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="6">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
         <v>115498.9991</v>
       </c>
-      <c r="AF36" s="6">
+      <c r="AF36" s="5">
         <v>147587.99770000001</v>
       </c>
-      <c r="AG36" s="6">
+      <c r="AG36" s="5">
         <v>152060.00339999999</v>
       </c>
-      <c r="AH36" s="6">
+      <c r="AH36" s="5">
         <v>139529.00039999999</v>
       </c>
-      <c r="AI36" s="6">
+      <c r="AI36" s="5">
         <v>163832.23149999999</v>
       </c>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="5">
         <v>160726.5888</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AK36" s="5">
         <v>162028.9662</v>
       </c>
-      <c r="AL36" s="6">
+      <c r="AL36" s="5">
         <v>170552.9448</v>
       </c>
-      <c r="AM36" s="6">
+      <c r="AM36" s="5">
         <v>172664.14240000001</v>
       </c>
-      <c r="AN36" s="6">
+      <c r="AN36" s="5">
         <v>182849.00109999999</v>
       </c>
-      <c r="AO36" s="6">
+      <c r="AO36" s="5">
         <v>188465.51420000001</v>
       </c>
-      <c r="AP36" s="6">
+      <c r="AP36" s="5">
         <v>166598.89679999999</v>
       </c>
-      <c r="AQ36" s="6">
+      <c r="AQ36" s="5">
         <v>184961.8615</v>
       </c>
-      <c r="AR36" s="6">
+      <c r="AR36" s="5">
         <v>181471.872</v>
       </c>
-      <c r="AS36" s="6">
+      <c r="AS36" s="5">
         <v>175688.43160000001</v>
       </c>
-      <c r="AT36" s="6">
+      <c r="AT36" s="5">
         <v>194958.87549999999</v>
       </c>
-      <c r="AU36" s="6">
+      <c r="AU36" s="5">
         <v>194169.87239999999</v>
       </c>
-      <c r="AV36" s="6">
+      <c r="AV36" s="5">
         <v>198275.12280000001</v>
       </c>
-      <c r="AW36" s="6">
+      <c r="AW36" s="5">
         <v>205066.08360000001</v>
       </c>
-      <c r="AX36" s="6">
+      <c r="AX36" s="5">
         <v>207719.15470000001</v>
       </c>
-      <c r="AY36" s="6">
+      <c r="AY36" s="5">
         <v>184991.22399999999</v>
       </c>
-      <c r="AZ36" s="6">
+      <c r="AZ36" s="5">
         <v>184323.60140000001</v>
       </c>
-      <c r="BA36" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="6">
+      <c r="BA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>-21467</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>655297</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>782113</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>859484</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>903789</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>973352</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>1087650</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>1150693</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>1111255.0003</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>1223900.0001000001</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>1328152.0001999999</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <v>1559105</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <v>1614569</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>1600462.0001000001</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <v>1122228.0001000001</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <v>1573395</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="5">
         <v>1744667.0001000001</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="5">
         <v>1428447.9996</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="5">
         <v>1731993.0001000001</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="5">
         <v>1747554.9998999999</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="5">
         <v>2031405.0015</v>
       </c>
-      <c r="W37" s="6">
+      <c r="W37" s="5">
         <v>1867588.0004</v>
       </c>
-      <c r="X37" s="6">
+      <c r="X37" s="5">
         <v>1761337</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="5">
         <v>2224114.0000999998</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="Z37" s="5">
         <v>2106024.0007000002</v>
       </c>
-      <c r="AA37" s="6">
+      <c r="AA37" s="5">
         <v>2342658.9994999999</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AB37" s="5">
         <v>2592332.0019</v>
       </c>
-      <c r="AC37" s="6">
+      <c r="AC37" s="5">
         <v>2713713.0002000001</v>
       </c>
-      <c r="AD37" s="6">
+      <c r="AD37" s="5">
         <v>2651268.0008</v>
       </c>
-      <c r="AE37" s="6">
+      <c r="AE37" s="5">
         <v>3044679.0016000001</v>
       </c>
-      <c r="AF37" s="6">
+      <c r="AF37" s="5">
         <v>2727610.9999000002</v>
       </c>
-      <c r="AG37" s="6">
+      <c r="AG37" s="5">
         <v>2774188.0011999998</v>
       </c>
-      <c r="AH37" s="6">
+      <c r="AH37" s="5">
         <v>2731736.0033999998</v>
       </c>
-      <c r="AI37" s="6">
+      <c r="AI37" s="5">
         <v>2901202.2034</v>
       </c>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="5">
         <v>2977133.2993000001</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AK37" s="5">
         <v>2996362.5005999999</v>
       </c>
-      <c r="AL37" s="6">
+      <c r="AL37" s="5">
         <v>3324030.1</v>
       </c>
-      <c r="AM37" s="6">
+      <c r="AM37" s="5">
         <v>2991363.8380999998</v>
       </c>
-      <c r="AN37" s="6">
+      <c r="AN37" s="5">
         <v>2795025.4889000002</v>
       </c>
-      <c r="AO37" s="6">
+      <c r="AO37" s="5">
         <v>2833036.2799</v>
       </c>
-      <c r="AP37" s="6">
+      <c r="AP37" s="5">
         <v>2740398.9013</v>
       </c>
-      <c r="AQ37" s="6">
+      <c r="AQ37" s="5">
         <v>2705412.2028999999</v>
       </c>
-      <c r="AR37" s="6">
+      <c r="AR37" s="5">
         <v>3007249.5603999998</v>
       </c>
-      <c r="AS37" s="6">
+      <c r="AS37" s="5">
         <v>3016648.4311000002</v>
       </c>
-      <c r="AT37" s="6">
+      <c r="AT37" s="5">
         <v>3198113.1017</v>
       </c>
-      <c r="AU37" s="6">
+      <c r="AU37" s="5">
         <v>3485475.5817999998</v>
       </c>
-      <c r="AV37" s="6">
+      <c r="AV37" s="5">
         <v>3351866.4824999999</v>
       </c>
-      <c r="AW37" s="6">
+      <c r="AW37" s="5">
         <v>3231861.5046999999</v>
       </c>
-      <c r="AX37" s="6">
+      <c r="AX37" s="5">
         <v>3148731.1307000001</v>
       </c>
-      <c r="AY37" s="6">
+      <c r="AY37" s="5">
         <v>3435225.2779999999</v>
       </c>
-      <c r="AZ37" s="6">
+      <c r="AZ37" s="5">
         <v>3234076.0340999998</v>
       </c>
-      <c r="BA37" s="6">
+      <c r="BA37" s="5">
         <v>197021</v>
       </c>
-      <c r="BB37" s="6">
+      <c r="BB37" s="5">
         <v>2971</v>
       </c>
-      <c r="BC37" s="6">
+      <c r="BC37" s="5">
         <v>-97650</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>117706.00019999999</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>1592173.0001999999</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1575514.0005999999</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>1658449.0001999999</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>1713083.0008</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>1787430.0008</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>1741958.9992</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>1761758.9994999999</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>1764408.9990999999</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>1811913.9996</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>1890898.9985</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <v>1678483.9996</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>1924232.9968999999</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <v>1921672.997</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <v>1183997.9996</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="5">
         <v>1674044.0007</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="5">
         <v>1680246.0016999999</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="5">
         <v>1582500.0005999999</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="5">
         <v>1790532.0009000001</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>1629364.003</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V38" s="5">
         <v>1685175.9994000001</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W38" s="5">
         <v>1570188.9994000001</v>
       </c>
-      <c r="X38" s="6">
+      <c r="X38" s="5">
         <v>1613955.9986</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="5">
         <v>1624638.0016000001</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="Z38" s="5">
         <v>1639836.9992</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AA38" s="5">
         <v>1559219.9998000001</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AB38" s="5">
         <v>1549193.9978</v>
       </c>
-      <c r="AC38" s="6">
+      <c r="AC38" s="5">
         <v>1689341.9997</v>
       </c>
-      <c r="AD38" s="6">
+      <c r="AD38" s="5">
         <v>1603556.9941</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AE38" s="5">
         <v>1634134.9953999999</v>
       </c>
-      <c r="AF38" s="6">
+      <c r="AF38" s="5">
         <v>1618394.0015</v>
       </c>
-      <c r="AG38" s="6">
+      <c r="AG38" s="5">
         <v>1669373.0005000001</v>
       </c>
-      <c r="AH38" s="6">
+      <c r="AH38" s="5">
         <v>1203841.9909000001</v>
       </c>
-      <c r="AI38" s="6">
+      <c r="AI38" s="5">
         <v>1297798.7908000001</v>
       </c>
-      <c r="AJ38" s="6">
+      <c r="AJ38" s="5">
         <v>1240741.0891</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AK38" s="5">
         <v>1248124.6908</v>
       </c>
-      <c r="AL38" s="6">
+      <c r="AL38" s="5">
         <v>1279221.1943999999</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AM38" s="5">
         <v>1173089.4861000001</v>
       </c>
-      <c r="AN38" s="6">
+      <c r="AN38" s="5">
         <v>1251447.9865999999</v>
       </c>
-      <c r="AO38" s="6">
+      <c r="AO38" s="5">
         <v>1224352.0035999999</v>
       </c>
-      <c r="AP38" s="6">
+      <c r="AP38" s="5">
         <v>1178293.186</v>
       </c>
-      <c r="AQ38" s="6">
+      <c r="AQ38" s="5">
         <v>1233506.1894</v>
       </c>
-      <c r="AR38" s="6">
+      <c r="AR38" s="5">
         <v>1169831.7427000001</v>
       </c>
-      <c r="AS38" s="6">
+      <c r="AS38" s="5">
         <v>1315035.5558</v>
       </c>
-      <c r="AT38" s="6">
+      <c r="AT38" s="5">
         <v>1244305.6564</v>
       </c>
-      <c r="AU38" s="6">
+      <c r="AU38" s="5">
         <v>1272454.69</v>
       </c>
-      <c r="AV38" s="6">
+      <c r="AV38" s="5">
         <v>1132892.6736999999</v>
       </c>
-      <c r="AW38" s="6">
+      <c r="AW38" s="5">
         <v>1221449.0829</v>
       </c>
-      <c r="AX38" s="6">
+      <c r="AX38" s="5">
         <v>1125013.125</v>
       </c>
-      <c r="AY38" s="6">
+      <c r="AY38" s="5">
         <v>1159329.8765</v>
       </c>
-      <c r="AZ38" s="6">
+      <c r="AZ38" s="5">
         <v>1175149.6747000001</v>
       </c>
-      <c r="BA38" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="6">
+      <c r="BA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>-28117.999800000001</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>532567.99919999996</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>609558.99320000003</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>455683.989</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>584025.99699999997</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>555821.99509999994</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>526297.99529999995</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>575833.99089999998</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>578904.99140000006</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>648114.9926</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>613570.99560000002</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <v>676873.99860000005</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <v>740160.99970000004</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>685096.99950000003</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <v>553244.99930000002</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="5">
         <v>558242.99910000002</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="5">
         <v>546766.00049999997</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="5">
         <v>672767.99820000003</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="5">
         <v>694912.00190000003</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="5">
         <v>594202.99840000004</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="5">
         <v>641714.00049999997</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="5">
         <v>647927.00320000004</v>
       </c>
-      <c r="X39" s="6">
+      <c r="X39" s="5">
         <v>665805.00020000001</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="5">
         <v>713722.00139999995</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="Z39" s="5">
         <v>774389.00340000005</v>
       </c>
-      <c r="AA39" s="6">
+      <c r="AA39" s="5">
         <v>854942.99919999996</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AB39" s="5">
         <v>935407.00219999999</v>
       </c>
-      <c r="AC39" s="6">
+      <c r="AC39" s="5">
         <v>907479.00349999999</v>
       </c>
-      <c r="AD39" s="6">
+      <c r="AD39" s="5">
         <v>948890.00069999998</v>
       </c>
-      <c r="AE39" s="6">
+      <c r="AE39" s="5">
         <v>994891.00309999997</v>
       </c>
-      <c r="AF39" s="6">
+      <c r="AF39" s="5">
         <v>868791.00490000006</v>
       </c>
-      <c r="AG39" s="6">
+      <c r="AG39" s="5">
         <v>944377.00379999995</v>
       </c>
-      <c r="AH39" s="6">
+      <c r="AH39" s="5">
         <v>935126.00260000001</v>
       </c>
-      <c r="AI39" s="6">
+      <c r="AI39" s="5">
         <v>922092.99959999998</v>
       </c>
-      <c r="AJ39" s="6">
+      <c r="AJ39" s="5">
         <v>712429.99710000004</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AK39" s="5">
         <v>810527.00069999998</v>
       </c>
-      <c r="AL39" s="6">
+      <c r="AL39" s="5">
         <v>862705.00159999996</v>
       </c>
-      <c r="AM39" s="6">
+      <c r="AM39" s="5">
         <v>826930.02830000001</v>
       </c>
-      <c r="AN39" s="6">
+      <c r="AN39" s="5">
         <v>816090.21580000001</v>
       </c>
-      <c r="AO39" s="6">
+      <c r="AO39" s="5">
         <v>821025.87809999997</v>
       </c>
-      <c r="AP39" s="6">
+      <c r="AP39" s="5">
         <v>852429.93290000001</v>
       </c>
-      <c r="AQ39" s="6">
+      <c r="AQ39" s="5">
         <v>722016.43680000002</v>
       </c>
-      <c r="AR39" s="6">
+      <c r="AR39" s="5">
         <v>1099332.4491000001</v>
       </c>
-      <c r="AS39" s="6">
+      <c r="AS39" s="5">
         <v>931889.37230000005</v>
       </c>
-      <c r="AT39" s="6">
+      <c r="AT39" s="5">
         <v>988974.19380000001</v>
       </c>
-      <c r="AU39" s="6">
+      <c r="AU39" s="5">
         <v>1149301.6902000001</v>
       </c>
-      <c r="AV39" s="6">
+      <c r="AV39" s="5">
         <v>965544.62849999999</v>
       </c>
-      <c r="AW39" s="6">
+      <c r="AW39" s="5">
         <v>1011808.333</v>
       </c>
-      <c r="AX39" s="6">
+      <c r="AX39" s="5">
         <v>1034468.4730999999</v>
       </c>
-      <c r="AY39" s="6">
+      <c r="AY39" s="5">
         <v>1046938.3274</v>
       </c>
-      <c r="AZ39" s="6">
+      <c r="AZ39" s="5">
         <v>1122756.8203</v>
       </c>
-      <c r="BA39" s="6">
+      <c r="BA39" s="5">
         <v>1027578.22</v>
       </c>
-      <c r="BB39" s="6">
+      <c r="BB39" s="5">
         <v>1095728.9468</v>
       </c>
-      <c r="BC39" s="6">
+      <c r="BC39" s="5">
         <v>1066237.6233000001</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>47496.999600000003</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>34724.000599999999</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>35681.998599999999</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>43337.000399999997</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>47798.000599999999</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>31022.999599999999</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>47782.0003</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>38054.001600000003</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>56165.002099999998</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>68649.000700000004</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>73161.001399999994</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <v>55421.997799999997</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <v>65137.001199999999</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <v>80088.000199999995</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>30285.000499999998</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="5">
         <v>53237.998899999999</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="5">
         <v>53815.001300000004</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="5">
         <v>45352.998699999996</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="5">
         <v>50266.999199999998</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="5">
         <v>71989.998800000001</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="5">
         <v>68332.999200000006</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="5">
         <v>80692.000400000004</v>
       </c>
-      <c r="X40" s="6">
+      <c r="X40" s="5">
         <v>85116.999200000006</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="5">
         <v>94682.000100000005</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="Z40" s="5">
         <v>91549.999200000006</v>
       </c>
-      <c r="AA40" s="6">
+      <c r="AA40" s="5">
         <v>109782.9996</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AB40" s="5">
         <v>79967.000400000004</v>
       </c>
-      <c r="AC40" s="6">
+      <c r="AC40" s="5">
         <v>100999.99800000001</v>
       </c>
-      <c r="AD40" s="6">
+      <c r="AD40" s="5">
         <v>90201.001199999999</v>
       </c>
-      <c r="AE40" s="6">
+      <c r="AE40" s="5">
         <v>110583.0012</v>
       </c>
-      <c r="AF40" s="6">
+      <c r="AF40" s="5">
         <v>100624.00079999999</v>
       </c>
-      <c r="AG40" s="6">
+      <c r="AG40" s="5">
         <v>137267.00039999999</v>
       </c>
-      <c r="AH40" s="6">
+      <c r="AH40" s="5">
         <v>136783.00080000001</v>
       </c>
-      <c r="AI40" s="6">
+      <c r="AI40" s="5">
         <v>143650.00080000001</v>
       </c>
-      <c r="AJ40" s="6">
+      <c r="AJ40" s="5">
         <v>164617.00080000001</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AK40" s="5">
         <v>147417</v>
       </c>
-      <c r="AL40" s="6">
+      <c r="AL40" s="5">
         <v>185404.5404</v>
       </c>
-      <c r="AM40" s="6">
+      <c r="AM40" s="5">
         <v>191742.55470000001</v>
       </c>
-      <c r="AN40" s="6">
+      <c r="AN40" s="5">
         <v>231780.08439999999</v>
       </c>
-      <c r="AO40" s="6">
+      <c r="AO40" s="5">
         <v>234173.03899999999</v>
       </c>
-      <c r="AP40" s="6">
+      <c r="AP40" s="5">
         <v>119661.3939</v>
       </c>
-      <c r="AQ40" s="6">
+      <c r="AQ40" s="5">
         <v>262976.6299</v>
       </c>
-      <c r="AR40" s="6">
+      <c r="AR40" s="5">
         <v>189795.85569999999</v>
       </c>
-      <c r="AS40" s="6">
+      <c r="AS40" s="5">
         <v>200404.1458</v>
       </c>
-      <c r="AT40" s="6">
+      <c r="AT40" s="5">
         <v>253395.7801</v>
       </c>
-      <c r="AU40" s="6">
+      <c r="AU40" s="5">
         <v>317485.30050000001</v>
       </c>
-      <c r="AV40" s="6">
+      <c r="AV40" s="5">
         <v>288727.1606</v>
       </c>
-      <c r="AW40" s="6">
+      <c r="AW40" s="5">
         <v>301474.2487</v>
       </c>
-      <c r="AX40" s="6">
+      <c r="AX40" s="5">
         <v>415374.26579999999</v>
       </c>
-      <c r="AY40" s="6">
+      <c r="AY40" s="5">
         <v>421136.27649999998</v>
       </c>
-      <c r="AZ40" s="6">
+      <c r="AZ40" s="5">
         <v>429398.17700000003</v>
       </c>
-      <c r="BA40" s="6">
+      <c r="BA40" s="5">
         <v>459852.14309999999</v>
       </c>
-      <c r="BB40" s="6">
+      <c r="BB40" s="5">
         <v>457889.8297</v>
       </c>
-      <c r="BC40" s="6">
+      <c r="BC40" s="5">
         <v>465443.59600000002</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>-226176.99950000001</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>1244483.9978</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>1171535.9979000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>1281857.9994000001</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>1398296.0020999999</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>1438411.9983000001</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>1686594.0049999999</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>1847260.0003</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>1974906.9986</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>1890534.0015</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>2507690.0024999999</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <v>1840641.9959</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>2016441.9946999999</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>1929529.9956</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <v>1621234.9983000001</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="5">
         <v>1740161.9997</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
         <v>2457483.0035000001</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="5">
         <v>2021653.0053999999</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
         <v>2392143.0041</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="5">
         <v>2286170.0041999999</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="5">
         <v>2265510.0066999998</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="5">
         <v>2366620.0079000001</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="5">
         <v>2307497.0057000001</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Y41" s="5">
         <v>2282027.0060000001</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="Z41" s="5">
         <v>2355335.0081000002</v>
       </c>
-      <c r="AA41" s="6">
+      <c r="AA41" s="5">
         <v>2331182.0057999999</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AB41" s="5">
         <v>2176672.0090000001</v>
       </c>
-      <c r="AC41" s="6">
+      <c r="AC41" s="5">
         <v>2348087.0104</v>
       </c>
-      <c r="AD41" s="6">
+      <c r="AD41" s="5">
         <v>2341740.0035000001</v>
       </c>
-      <c r="AE41" s="6">
+      <c r="AE41" s="5">
         <v>2516008.0077</v>
       </c>
-      <c r="AF41" s="6">
+      <c r="AF41" s="5">
         <v>2533688.0114000002</v>
       </c>
-      <c r="AG41" s="6">
+      <c r="AG41" s="5">
         <v>2639738.0123000001</v>
       </c>
-      <c r="AH41" s="6">
+      <c r="AH41" s="5">
         <v>2199806.0181999998</v>
       </c>
-      <c r="AI41" s="6">
+      <c r="AI41" s="5">
         <v>2406060.5155000002</v>
       </c>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="5">
         <v>2440766.5181999998</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AK41" s="5">
         <v>2587820.3149000001</v>
       </c>
-      <c r="AL41" s="6">
+      <c r="AL41" s="5">
         <v>2275764.3114999998</v>
       </c>
-      <c r="AM41" s="6">
+      <c r="AM41" s="5">
         <v>2342282.5932999998</v>
       </c>
-      <c r="AN41" s="6">
+      <c r="AN41" s="5">
         <v>2214825.1521000001</v>
       </c>
-      <c r="AO41" s="6">
+      <c r="AO41" s="5">
         <v>2260740.0997000001</v>
       </c>
-      <c r="AP41" s="6">
+      <c r="AP41" s="5">
         <v>2235795.821</v>
       </c>
-      <c r="AQ41" s="6">
+      <c r="AQ41" s="5">
         <v>2458495.8999000001</v>
       </c>
-      <c r="AR41" s="6">
+      <c r="AR41" s="5">
         <v>2680234.4747000001</v>
       </c>
-      <c r="AS41" s="6">
+      <c r="AS41" s="5">
         <v>3058788.7185</v>
       </c>
-      <c r="AT41" s="6">
+      <c r="AT41" s="5">
         <v>2823698.2579999999</v>
       </c>
-      <c r="AU41" s="6">
+      <c r="AU41" s="5">
         <v>3067431.5451000002</v>
       </c>
-      <c r="AV41" s="6">
+      <c r="AV41" s="5">
         <v>3220111.8656000001</v>
       </c>
-      <c r="AW41" s="6">
+      <c r="AW41" s="5">
         <v>3134144.3042000001</v>
       </c>
-      <c r="AX41" s="6">
+      <c r="AX41" s="5">
         <v>2925449.4608999998</v>
       </c>
-      <c r="AY41" s="6">
+      <c r="AY41" s="5">
         <v>2925873.3237999999</v>
       </c>
-      <c r="AZ41" s="6">
+      <c r="AZ41" s="5">
         <v>2827882.5090000001</v>
       </c>
-      <c r="BA41" s="6">
+      <c r="BA41" s="5">
         <v>-1150</v>
       </c>
-      <c r="BB41" s="6">
+      <c r="BB41" s="5">
         <v>-2550</v>
       </c>
-      <c r="BC41" s="6">
+      <c r="BC41" s="5">
         <v>16550</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>2010498.9963</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>22203391.989500001</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>21881672.999600001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>21611688.9958</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>22168847.9943</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>22506254</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>21833557.999699999</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>21266728.993999999</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>20715632.997499999</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>21897527.0088</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>21790842.006900001</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <v>20767351.000300001</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>19992808.007599998</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>20874011.009399999</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <v>15672339.011</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="5">
         <v>17925092.0134</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
         <v>19013880.0222</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="5">
         <v>17414035.005800001</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
         <v>17199653.996199999</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="5">
         <v>18282514.000300001</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="5">
         <v>17922811.002599999</v>
       </c>
-      <c r="W42" s="6">
+      <c r="W42" s="5">
         <v>18397068.008900002</v>
       </c>
-      <c r="X42" s="6">
+      <c r="X42" s="5">
         <v>18378529.002700001</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="5">
         <v>17572310.004099999</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="Z42" s="5">
         <v>18196622.005800001</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AA42" s="5">
         <v>17888947.0152</v>
       </c>
-      <c r="AB42" s="6">
+      <c r="AB42" s="5">
         <v>18555843.011500001</v>
       </c>
-      <c r="AC42" s="6">
+      <c r="AC42" s="5">
         <v>18297618.0013</v>
       </c>
-      <c r="AD42" s="6">
+      <c r="AD42" s="5">
         <v>18661180.0011</v>
       </c>
-      <c r="AE42" s="6">
+      <c r="AE42" s="5">
         <v>18290452.9958</v>
       </c>
-      <c r="AF42" s="6">
+      <c r="AF42" s="5">
         <v>19217136.997000001</v>
       </c>
-      <c r="AG42" s="6">
+      <c r="AG42" s="5">
         <v>17326103.9936</v>
       </c>
-      <c r="AH42" s="6">
+      <c r="AH42" s="5">
         <v>17362870.9859</v>
       </c>
-      <c r="AI42" s="6">
+      <c r="AI42" s="5">
         <v>18059000.789500002</v>
       </c>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="5">
         <v>17795448.194699999</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AK42" s="5">
         <v>18603798.692899998</v>
       </c>
-      <c r="AL42" s="6">
+      <c r="AL42" s="5">
         <v>19359427.693100002</v>
       </c>
-      <c r="AM42" s="6">
+      <c r="AM42" s="5">
         <v>18745563.717900001</v>
       </c>
-      <c r="AN42" s="6">
+      <c r="AN42" s="5">
         <v>19553653.807399999</v>
       </c>
-      <c r="AO42" s="6">
+      <c r="AO42" s="5">
         <v>19124510.9135</v>
       </c>
-      <c r="AP42" s="6">
+      <c r="AP42" s="5">
         <v>20192677.643399999</v>
       </c>
-      <c r="AQ42" s="6">
+      <c r="AQ42" s="5">
         <v>20972762.919399999</v>
       </c>
-      <c r="AR42" s="6">
+      <c r="AR42" s="5">
         <v>20997544.038899999</v>
       </c>
-      <c r="AS42" s="6">
+      <c r="AS42" s="5">
         <v>20667379.5803</v>
       </c>
-      <c r="AT42" s="6">
+      <c r="AT42" s="5">
         <v>21033273.1039</v>
       </c>
-      <c r="AU42" s="6">
+      <c r="AU42" s="5">
         <v>21652427.0057</v>
       </c>
-      <c r="AV42" s="6">
+      <c r="AV42" s="5">
         <v>21435967.112100001</v>
       </c>
-      <c r="AW42" s="6">
+      <c r="AW42" s="5">
         <v>21783457.919</v>
       </c>
-      <c r="AX42" s="6">
+      <c r="AX42" s="5">
         <v>22043891.3838</v>
       </c>
-      <c r="AY42" s="6">
+      <c r="AY42" s="5">
         <v>22231663.714899998</v>
       </c>
-      <c r="AZ42" s="6">
+      <c r="AZ42" s="5">
         <v>23416742.198399998</v>
       </c>
-      <c r="BA42" s="6">
+      <c r="BA42" s="5">
         <v>23766510.526799999</v>
       </c>
-      <c r="BB42" s="6">
+      <c r="BB42" s="5">
         <v>24438235.3189</v>
       </c>
-      <c r="BC42" s="6">
+      <c r="BC42" s="5">
         <v>25242947.120700002</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
-      <c r="AP43" s="6"/>
-      <c r="AQ43" s="6"/>
-      <c r="AR43" s="6"/>
-      <c r="AS43" s="6"/>
-      <c r="AT43" s="6"/>
-      <c r="AU43" s="6"/>
-      <c r="AV43" s="6"/>
-      <c r="AW43" s="6"/>
-      <c r="AX43" s="6"/>
-      <c r="AY43" s="6"/>
-      <c r="AZ43" s="6"/>
-      <c r="BA43" s="6"/>
-      <c r="BB43" s="6"/>
-      <c r="BC43" s="6"/>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
